--- a/Projeto_Fisico/Componentes.xlsx
+++ b/Projeto_Fisico/Componentes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\Projeto_Fisico\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D83E40-BD4E-4146-8D56-8863D0BBD76D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>Componentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esp32 </t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>esp8266</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/1005001666897038.html?pdp_npi=2%40dis%21BRL%21R%24%2011%2C77%21R%24%209%2C89%21%21%21%21%21%402103222816675278982946760e5cc6%2112000024936208569%21btf&amp;_t=pvid%3A22f0c26b-53df-4900-afe5-67cccc9e0f71&amp;afTraceInfo=1005001666897038__pc__pcBridgePPC__xxxxxx__1667527898&amp;spm=a2g0o.ppclist.product.mainProduct&amp;gatewayAdapt=glo2bra</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1759659294-esp32-esp-32-esp-wroom-32-pronto-entrega-_JM#is_advertising=true&amp;position=1&amp;search_layout=grid&amp;type=pad&amp;tracking_id=bbe00a1a-2601-4ef5-bd07-3f93106ef340&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=NWQzNThkZGUtODZhZi00ZGVhLTlmZDMtYjAyZWI0MGUyMzMz</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/32901149409.html?spm=a2g0o.productlist.0.0.7f205b0bVfFNvM&amp;algo_pvid=547d9993-8844-46e2-bb24-055810a8ef5e&amp;aem_p4p_detail=202211031915039516607435878400000929207&amp;algo_exp_id=547d9993-8844-46e2-bb24-055810a8ef5e-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265822750914%22%7D&amp;pdp_npi=2%40dis%21BRL%214.78%214.51%21%21%2123.75%21%21%402101e9d416675281034483834ea0d9%2165822750914%21sea&amp;curPageLogUid=iALldBwORWm9&amp;ad_pvid=202211031915039516607435878400000929207_1</t>
+  </si>
+  <si>
+    <t>Link Internacional</t>
+  </si>
+  <si>
+    <t>Link Nacional</t>
+  </si>
+  <si>
+    <t>https://produto.mercadolivre.com.br/MLB-1460401421-modulo-sensor-ultra-snico-distncia-hc-sr04-para-arduino-_JM#position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=d0ea6651-838f-493a-bf17-dbb0d6c33fb6</t>
+  </si>
+  <si>
+    <t>sensor ultrassônico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hc-sr04</t>
+  </si>
+  <si>
+    <t>Un.</t>
+  </si>
+  <si>
+    <t>Dispon.</t>
+  </si>
+  <si>
+    <t>Valor Nasc.</t>
+  </si>
+  <si>
+    <t>Valor Intern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28byj-48 </t>
+  </si>
+  <si>
+    <t>Motor de Passo</t>
+  </si>
+  <si>
+    <t>https://pt.aliexpress.com/item/32889788942.html?pdp_npi=2%40dis%21BRL%21R%24%202%2C74%21R%24%202%2C58%21%21%21%21%21%402103222816675282844134190e5cc6%2165739635399%21btf&amp;_t=pvid%3A7a75940b-ec81-4486-8ceb-3fe572d313fe&amp;afTraceInfo=32889788942__pc__pcBridgePPC__xxxxxx__1667528284&amp;spm=a2g0o.ppclist.product.mainProduct&amp;gatewayAdapt=glo2bra</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Valores Internacional Sem o Frete</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,16 +146,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +182,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71C530E5-27A7-4084-9FA3-18CE93F0050A}" name="Tabela1" displayName="Tabela1" ref="D5:K9" totalsRowShown="0">
+  <autoFilter ref="D5:K9" xr:uid="{84D492AC-0B53-41E8-BEAB-606F74EB8310}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3598CD15-D95C-47EC-B470-1369FBCB6A01}" name="Componentes"/>
+    <tableColumn id="2" xr3:uid="{7B3537CF-8F47-4611-A512-06F495EDB43B}" name="Modelo"/>
+    <tableColumn id="3" xr3:uid="{E167C128-F0C2-4340-9794-8E97D304B368}" name="Un."/>
+    <tableColumn id="4" xr3:uid="{424C2D70-157F-4CF4-B99B-0531EFBA5068}" name="Dispon."/>
+    <tableColumn id="5" xr3:uid="{8DAF882C-F9B2-4270-B70C-C9560A3FB6E7}" name="Valor Nasc."/>
+    <tableColumn id="6" xr3:uid="{3374DE68-0208-4C4B-BB69-EEB01E223893}" name="Valor Intern." dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{405631BC-248C-4259-93D9-52ABE6C2C524}" name="Link Internacional" dataCellStyle="Hiperlink"/>
+    <tableColumn id="8" xr3:uid="{9A62F75F-1C0A-4C18-B35B-B11C9BCC4540}" name="Link Nacional"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +463,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D5:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9.89</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I9" s="1">
+        <v>16.98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J6" r:id="rId1" display="https://pt.aliexpress.com/item/1005001666897038.html?pdp_npi=2%40dis%21BRL%21R%24%2011%2C77%21R%24%209%2C89%21%21%21%21%21%402103222816675278982946760e5cc6%2112000024936208569%21btf&amp;_t=pvid%3A22f0c26b-53df-4900-afe5-67cccc9e0f71&amp;afTraceInfo=1005001666897038__pc__pcBridgePPC__xxxxxx__1667527898&amp;spm=a2g0o.ppclist.product.mainProduct&amp;gatewayAdapt=glo2bra" xr:uid="{FA926FED-AE93-4FD3-BE6D-2B44E1E10E69}"/>
+    <hyperlink ref="K6" r:id="rId2" location="is_advertising=true&amp;position=1&amp;search_layout=grid&amp;type=pad&amp;tracking_id=bbe00a1a-2601-4ef5-bd07-3f93106ef340&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=NWQzNThkZGUtODZhZi00ZGVhLTlmZDMtYjAyZWI0MGUyMzMz" display="https://produto.mercadolivre.com.br/MLB-1759659294-esp32-esp-32-esp-wroom-32-pronto-entrega-_JM#is_advertising=true&amp;position=1&amp;search_layout=grid&amp;type=pad&amp;tracking_id=bbe00a1a-2601-4ef5-bd07-3f93106ef340&amp;is_advertising=true&amp;ad_domain=VQCATCORE_LST&amp;ad_position=1&amp;ad_click_id=NWQzNThkZGUtODZhZi00ZGVhLTlmZDMtYjAyZWI0MGUyMzMz" xr:uid="{C1C199BA-3B03-4B6C-8946-59E146456267}"/>
+    <hyperlink ref="J7" r:id="rId3" display="https://pt.aliexpress.com/item/32901149409.html?spm=a2g0o.productlist.0.0.7f205b0bVfFNvM&amp;algo_pvid=547d9993-8844-46e2-bb24-055810a8ef5e&amp;aem_p4p_detail=202211031915039516607435878400000929207&amp;algo_exp_id=547d9993-8844-46e2-bb24-055810a8ef5e-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265822750914%22%7D&amp;pdp_npi=2%40dis%21BRL%214.78%214.51%21%21%2123.75%21%21%402101e9d416675281034483834ea0d9%2165822750914%21sea&amp;curPageLogUid=iALldBwORWm9&amp;ad_pvid=202211031915039516607435878400000929207_1" xr:uid="{A6594BE3-F0DC-485B-9628-6D4D1C3EB8C7}"/>
+    <hyperlink ref="J8" r:id="rId4" display="https://pt.aliexpress.com/item/32889788942.html?pdp_npi=2%40dis%21BRL%21R%24%202%2C74%21R%24%202%2C58%21%21%21%21%21%402103222816675282844134190e5cc6%2165739635399%21btf&amp;_t=pvid%3A7a75940b-ec81-4486-8ceb-3fe572d313fe&amp;afTraceInfo=32889788942__pc__pcBridgePPC__xxxxxx__1667528284&amp;spm=a2g0o.ppclist.product.mainProduct&amp;gatewayAdapt=glo2bra" xr:uid="{D26AB74F-6D58-47ED-BE14-BABA2802A5E5}"/>
+    <hyperlink ref="K8" r:id="rId5" location="position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=d0ea6651-838f-493a-bf17-dbb0d6c33fb6" xr:uid="{1A38352D-B5CE-4116-A708-C4DC9980ADE3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <tableParts count="1">
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>